--- a/log_history/Y2_B2526_Microbiology_scanner1760440646414_6644c489854295b0ed9da3bfb9c9cc2afd597d3ae162ac467d86c93bb7c02214.xlsx
+++ b/log_history/Y2_B2526_Microbiology_scanner1760440646414_6644c489854295b0ed9da3bfb9c9cc2afd597d3ae162ac467d86c93bb7c02214.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y2_B2526_Microbiology_scanner1760440646414_6644c489854295b0ed9da3bfb9c9cc2afd597d3ae162ac467d86c93bb7c02214.xlsx
+++ b/log_history/Y2_B2526_Microbiology_scanner1760440646414_6644c489854295b0ed9da3bfb9c9cc2afd597d3ae162ac467d86c93bb7c02214.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Microbiology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
